--- a/scripts/Tabla1.xlsx
+++ b/scripts/Tabla1.xlsx
@@ -1,21 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Machine Learning\Taller_2\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8685C39-569F-4CB6-A77E-C5BAE6602034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+  <si>
+    <t>bedrooms</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <t>media_metros_cuadrados</t>
+  </si>
+  <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +89,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +175,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +227,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,312 +420,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>property_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>media_metros_cuadrados</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>59</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>135</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>182.5</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>210.5</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B17" t="s">
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C24">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>289</v>
       </c>
     </row>
